--- a/структура базы.xlsx
+++ b/структура базы.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\noda\testOne\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="28760" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -171,8 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,12 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -354,12 +353,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -740,7 +753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,9 +785,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -806,6 +820,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -981,71 +996,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
+    <col min="11" max="11" width="23.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1"/>
+    <col min="14" max="14" width="24.1796875" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.26953125" customWidth="1"/>
+    <col min="22" max="22" width="18.7265625" customWidth="1"/>
     <col min="23" max="23" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" customHeight="1">
+    <row r="1" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="16"/>
+      <c r="M2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="16"/>
+      <c r="P2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="16"/>
+      <c r="S2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="V2" s="8" t="s">
+      <c r="T2" s="16"/>
+      <c r="V2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="9"/>
+      <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="1:23" ht="21" customHeight="1">
+    <row r="3" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="21" customHeight="1">
+    <row r="4" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1147,14 +1162,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="21" customHeight="1">
+    <row r="5" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1191,11 +1206,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="21" customHeight="1">
-      <c r="G6" s="16" t="s">
+    <row r="6" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1222,14 +1237,14 @@
       <c r="T6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="21" customHeight="1">
+    <row r="7" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="J7" s="3" t="s">
@@ -1256,10 +1271,10 @@
       <c r="T7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" ht="21" customHeight="1">
+    <row r="8" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="J8" s="5" t="s">
@@ -1289,7 +1304,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="22.5" customHeight="1">
+    <row r="9" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1311,25 +1326,25 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:23" ht="21" customHeight="1">
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+    <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="P10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:23" ht="21" customHeight="1">
+    <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1343,7 +1358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="21" customHeight="1">
+    <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1351,7 +1366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="21" customHeight="1">
+    <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="21" customHeight="1">
+    <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1385,24 +1400,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/структура базы.xlsx
+++ b/структура базы.xlsx
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1394,7 +1394,7 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/структура базы.xlsx
+++ b/структура базы.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\noda\testOne\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="28760" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -171,13 +166,19 @@
   </si>
   <si>
     <t>имя отдела</t>
+  </si>
+  <si>
+    <t>id_department</t>
+  </si>
+  <si>
+    <t>статус роли</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -307,11 +308,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -344,9 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -358,6 +380,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,7 +781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,10 +813,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,7 +847,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -996,71 +1022,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" customWidth="1"/>
-    <col min="11" max="11" width="23.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" customWidth="1"/>
-    <col min="14" max="14" width="24.1796875" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="25.26953125" customWidth="1"/>
-    <col min="22" max="22" width="18.7265625" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
     <col min="23" max="23" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="21" customHeight="1">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:23" ht="21" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="15"/>
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="M2" s="15" t="s">
+      <c r="K2" s="15"/>
+      <c r="M2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="P2" s="15" t="s">
+      <c r="N2" s="15"/>
+      <c r="P2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="S2" s="15" t="s">
+      <c r="Q2" s="15"/>
+      <c r="S2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="V2" s="15" t="s">
+      <c r="T2" s="15"/>
+      <c r="V2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="16"/>
+      <c r="W2" s="15"/>
     </row>
-    <row r="3" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="21" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="21" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1162,14 +1188,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="21" customHeight="1">
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1206,11 +1232,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="12" t="s">
+    <row r="6" spans="1:23" ht="21" customHeight="1">
+      <c r="G6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1244,9 +1270,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+    <row r="7" spans="1:23" ht="21" customHeight="1">
+      <c r="G7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1274,7 +1304,7 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="21" customHeight="1">
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="J8" s="5" t="s">
@@ -1304,7 +1334,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="22.5" customHeight="1">
       <c r="M9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1356,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="21" customHeight="1">
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="P10" s="5" t="s">
@@ -1344,7 +1374,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="21" customHeight="1">
       <c r="P11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1358,7 +1388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="21" customHeight="1">
       <c r="P12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1366,7 +1396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="21" customHeight="1">
       <c r="P13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1374,7 +1404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="21" customHeight="1">
       <c r="P14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1400,24 +1430,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/структура базы.xlsx
+++ b/структура базы.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\noda\testOne\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="28760" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -99,9 +104,6 @@
     <t>Время закрытия смены</t>
   </si>
   <si>
-    <t>id_dependent</t>
-  </si>
-  <si>
     <t>data_v_rabote</t>
   </si>
   <si>
@@ -114,21 +116,12 @@
     <t>Время закрытия</t>
   </si>
   <si>
-    <t>id_shifts</t>
-  </si>
-  <si>
-    <t>id_смены</t>
-  </si>
-  <si>
     <t>opisanie</t>
   </si>
   <si>
     <t>Описание задачи</t>
   </si>
   <si>
-    <t>id зависимости</t>
-  </si>
-  <si>
     <t>id отдела</t>
   </si>
   <si>
@@ -138,30 +131,12 @@
     <t>id_departament</t>
   </si>
   <si>
-    <t>Зависимость(dependent)</t>
-  </si>
-  <si>
-    <t>Время открытия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время закрытия </t>
-  </si>
-  <si>
-    <t>id_tasks</t>
-  </si>
-  <si>
     <t>id шаблона</t>
   </si>
   <si>
     <t>Описание шаблона</t>
   </si>
   <si>
-    <t>Описание зависимости</t>
-  </si>
-  <si>
-    <t>data_start</t>
-  </si>
-  <si>
     <t>Шаблоны(shablon)</t>
   </si>
   <si>
@@ -172,13 +147,28 @@
   </si>
   <si>
     <t>статус роли</t>
+  </si>
+  <si>
+    <t>data_no_end</t>
+  </si>
+  <si>
+    <t>Время установки статуса не выпполненно</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>пароль роли</t>
+  </si>
+  <si>
+    <t>пароль пользователя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -254,21 +244,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -336,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -351,40 +326,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -662,53 +634,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13773150" y="676275"/>
-          <a:ext cx="600075" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17125950" y="676275"/>
           <a:ext cx="600075" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -781,7 +706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,9 +738,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -847,6 +773,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1022,71 +949,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
+    <col min="11" max="11" width="23.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1"/>
+    <col min="14" max="14" width="24.1796875" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="23" max="23" width="26" customWidth="1"/>
+    <col min="19" max="19" width="18.7265625" customWidth="1"/>
+    <col min="20" max="20" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" customHeight="1">
+    <row r="1" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="G2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="J2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="M2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="P2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="S2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="G2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="J2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="M2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="15"/>
-      <c r="P2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="S2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="15"/>
-      <c r="V2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="15"/>
+      <c r="T2" s="14"/>
     </row>
-    <row r="3" spans="1:23" ht="21" customHeight="1">
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -1128,16 +1049,10 @@
         <v>0</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="21" customHeight="1">
+    <row r="4" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1170,32 +1085,26 @@
         <v>10</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="21" customHeight="1">
+    <row r="5" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1214,30 +1123,24 @@
         <v>8</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="21" customHeight="1">
-      <c r="G6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>37</v>
+    <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>12</v>
@@ -1252,65 +1155,57 @@
         <v>7</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="9" t="s">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="21" customHeight="1">
-      <c r="G7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-    </row>
-    <row r="8" spans="1:23" ht="21" customHeight="1">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1320,21 +1215,21 @@
         <v>23</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="22.5" customHeight="1">
+    <row r="9" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="M9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1342,79 +1237,48 @@
         <v>26</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="Q11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" ht="21" customHeight="1">
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="P10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="8" t="s">
+      <c r="Q13" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" ht="21" customHeight="1">
-      <c r="P11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="21" customHeight="1">
-      <c r="P12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="21" customHeight="1">
-      <c r="P13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="21" customHeight="1">
-      <c r="P14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="V2:W2"/>
+  <mergeCells count="7">
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -1430,24 +1294,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/структура базы.xlsx
+++ b/структура базы.xlsx
@@ -347,17 +347,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -977,35 +977,35 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="16"/>
+      <c r="M2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="16"/>
+      <c r="P2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="16"/>
+      <c r="S2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="14"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1196,17 +1196,17 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>15</v>
+      <c r="J8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>24</v>
@@ -1224,11 +1224,11 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>46</v>
+      <c r="G9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>25</v>
@@ -1273,7 +1273,7 @@
       <c r="P13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="13" t="s">
         <v>43</v>
       </c>
     </row>
